--- a/data/trans_dic/P16A02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.173417554529277</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2064691992197845</v>
+        <v>0.2064691992197844</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1240921102170766</v>
@@ -697,7 +697,7 @@
         <v>0.1451144811103175</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.159058141920177</v>
+        <v>0.1590581419201769</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05724719871247649</v>
+        <v>0.05640434520387191</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08855419024021012</v>
+        <v>0.08948428499768175</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0897608194419055</v>
+        <v>0.0867779251596036</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07435917486107002</v>
+        <v>0.07551251224730167</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1406739811447095</v>
+        <v>0.1423061909109158</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1857246239942392</v>
+        <v>0.1871217397545435</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1387427996783988</v>
+        <v>0.1374357831920213</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1512012719497055</v>
+        <v>0.1501009822539506</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1023254686581451</v>
+        <v>0.1043052697308469</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.145441719651804</v>
+        <v>0.1460807712182578</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.119708627614816</v>
+        <v>0.1204057656205348</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1217960550615452</v>
+        <v>0.1247372328195044</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1045350459619107</v>
+        <v>0.1051634504641943</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1530920780730389</v>
+        <v>0.1538218123416106</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1547691289046852</v>
+        <v>0.1550023935822044</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1807438482897029</v>
+        <v>0.1788932949565115</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2111731428987084</v>
+        <v>0.210448160004406</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2691795954433634</v>
+        <v>0.2713058688571208</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2107985496524411</v>
+        <v>0.2106979004047853</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2666206872637829</v>
+        <v>0.2654344551767092</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1451008059675838</v>
+        <v>0.1472381098145062</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1968291246794035</v>
+        <v>0.1975830451342168</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1706790674653408</v>
+        <v>0.16932669541073</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2021576768631159</v>
+        <v>0.2002452307830493</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.1996441106531559</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1969500817086319</v>
+        <v>0.196950081708632</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06988671072682823</v>
+        <v>0.06856472101252838</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1217760611025644</v>
+        <v>0.1220451793972485</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1380779064481721</v>
+        <v>0.1380481884347148</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1420411424266833</v>
+        <v>0.1377649228887223</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.122967272986729</v>
+        <v>0.1228386053691907</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2100266296093055</v>
+        <v>0.2119858233635264</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2021560294753803</v>
+        <v>0.1989946134497302</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1671184658923235</v>
+        <v>0.1699655058777396</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.09889482581649869</v>
+        <v>0.1006816050621065</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1706789231007595</v>
+        <v>0.1692287353653586</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1769750893040274</v>
+        <v>0.1765690969688037</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1680485379757538</v>
+        <v>0.1685623538475767</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.110486437481185</v>
+        <v>0.1093951317122868</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1753650489797858</v>
+        <v>0.1806863376646616</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2007600990669043</v>
+        <v>0.1996392810801527</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2376570675139341</v>
+        <v>0.2336850473995062</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1816857671043643</v>
+        <v>0.1811758889306605</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2847306467226906</v>
+        <v>0.283801136854719</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.268990512306365</v>
+        <v>0.2679930797255892</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2478733095135147</v>
+        <v>0.2460367732718249</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.134379283614167</v>
+        <v>0.1340876558311033</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2152671397678449</v>
+        <v>0.2151744278311625</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2242414585444743</v>
+        <v>0.2218465897153097</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2294918019330948</v>
+        <v>0.2303879511820912</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2379393612437196</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.304326522011965</v>
+        <v>0.3043265220119651</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1721129444174937</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1094272857643842</v>
+        <v>0.1069464358462746</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.119211857331084</v>
+        <v>0.1186899649418089</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1427460301234747</v>
+        <v>0.1427241475123749</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1505116791187949</v>
+        <v>0.1501319145156282</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1737427153768261</v>
+        <v>0.1755611571896303</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2745998103519023</v>
+        <v>0.2742237926298173</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2058390320641035</v>
+        <v>0.2068808045123413</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2767349708360581</v>
+        <v>0.2729903509066078</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1511308654939793</v>
+        <v>0.1528300253887899</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2064428549610345</v>
+        <v>0.2046885972805088</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1842066826634748</v>
+        <v>0.1807169069517642</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2208629581936591</v>
+        <v>0.2195932520893964</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1630814377976968</v>
+        <v>0.1626938001029198</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1756719799404357</v>
+        <v>0.1786913540201659</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2014406009022455</v>
+        <v>0.2032584351501875</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2197610838647397</v>
+        <v>0.2138142621856997</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2373806433330314</v>
+        <v>0.2379599730301382</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3465531572474146</v>
+        <v>0.3444221181538331</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2719690303836361</v>
+        <v>0.272504377224581</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3404123606818732</v>
+        <v>0.3348601258416932</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1928287407987466</v>
+        <v>0.1960037969179377</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2523990605512738</v>
+        <v>0.2530339304360361</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2283172154795269</v>
+        <v>0.2264526583155034</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2660125858880418</v>
+        <v>0.2646826880587939</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1937885285820828</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2510058063281145</v>
+        <v>0.2510058063281144</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2390885936207724</v>
@@ -1105,7 +1105,7 @@
         <v>0.2429067876405567</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.31506139042783</v>
+        <v>0.3150613904278301</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1176859142346474</v>
+        <v>0.1178480321731119</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1361692987961459</v>
+        <v>0.1398089547067282</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1613696759518523</v>
+        <v>0.1616995506352676</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2166181185807533</v>
+        <v>0.2175204896817535</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2052896779476583</v>
+        <v>0.2052563217559571</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2795920298705979</v>
+        <v>0.281163293710701</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2545920251752967</v>
+        <v>0.2584516921831903</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3483659766714062</v>
+        <v>0.3477345074141003</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1685895792995957</v>
+        <v>0.1687037295211679</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2169995700318152</v>
+        <v>0.2182954348225731</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2187630584148682</v>
+        <v>0.2213897635942671</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2920026521732683</v>
+        <v>0.2926812005184636</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1835399547584283</v>
+        <v>0.1817918431714343</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1978592207065581</v>
+        <v>0.1992921710779225</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2310913335227661</v>
+        <v>0.2277982401043234</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2876101842201031</v>
+        <v>0.2859147713435505</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2799244912249567</v>
+        <v>0.2777236177563666</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.358546225610427</v>
+        <v>0.3604295810121524</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3268578559824558</v>
+        <v>0.3321982947811098</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4035795654748452</v>
+        <v>0.4036789247414913</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2196157116941805</v>
+        <v>0.2175778085671837</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2687401631265637</v>
+        <v>0.2677688068444538</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2693205931943605</v>
+        <v>0.270334822027794</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3363539227780162</v>
+        <v>0.3370559261142586</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1806660544538566</v>
+        <v>0.1793226117568666</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1853298271683502</v>
+        <v>0.1807005996374379</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1896781429981947</v>
+        <v>0.1894208029125043</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2635859753347974</v>
+        <v>0.2673171798091902</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2400286662745726</v>
+        <v>0.2443135557154422</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3165140333287076</v>
+        <v>0.3116978064096349</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3490097971858908</v>
+        <v>0.3497865080766508</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.412026841171989</v>
+        <v>0.4123056658995914</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2280365377397132</v>
+        <v>0.2263771294171438</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2597685090852182</v>
+        <v>0.2612104872735491</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2836106637105326</v>
+        <v>0.2815515922315402</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3456879572739588</v>
+        <v>0.347551993278711</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2656408222727606</v>
+        <v>0.2650067236624113</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2709056871919756</v>
+        <v>0.2674265105227026</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2667240784664977</v>
+        <v>0.2717237566625748</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.333754147016161</v>
+        <v>0.3343432235060676</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3353135106283636</v>
+        <v>0.3354677733891852</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4058210308238405</v>
+        <v>0.4114624802438895</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4378888119280185</v>
+        <v>0.4380899040722924</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4748241183427216</v>
+        <v>0.4736557107292512</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2901847958512961</v>
+        <v>0.2889228220233364</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3247566585259568</v>
+        <v>0.3225932718854922</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3440553939855395</v>
+        <v>0.3436801867461791</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3940502323152576</v>
+        <v>0.3950306086143119</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.4306394879494091</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.5266125608546319</v>
+        <v>0.5266125608546317</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2510164377123648</v>
@@ -1377,7 +1377,7 @@
         <v>0.3123450187448334</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.4031379267383077</v>
+        <v>0.4031379267383078</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1293768589999987</v>
+        <v>0.1268552032664491</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2162042721068186</v>
+        <v>0.2185612949322443</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1393826039302306</v>
+        <v>0.1376507680593999</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2324209949036828</v>
+        <v>0.2337016494643463</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2770143955017187</v>
+        <v>0.2817010181460261</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4049522131518194</v>
+        <v>0.4024247879603816</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3786548394551895</v>
+        <v>0.3763135816155778</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4939726628353275</v>
+        <v>0.4903054764272867</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2173310037631701</v>
+        <v>0.2185612529361877</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.332982369898857</v>
+        <v>0.3326621031795246</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2763869648788693</v>
+        <v>0.2778343519376944</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3772713471091256</v>
+        <v>0.378321669555303</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2121219969196284</v>
+        <v>0.2142743786176236</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3287530318844814</v>
+        <v>0.3210373306601657</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2271051478163332</v>
+        <v>0.2255479866727517</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3100280707551218</v>
+        <v>0.3065787531774437</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3745751321442555</v>
+        <v>0.3738033403679237</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5152001079471074</v>
+        <v>0.5055972306407539</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4852683709119398</v>
+        <v>0.4806038961539689</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5633187081667391</v>
+        <v>0.5593131879685843</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2856915963389797</v>
+        <v>0.284197499542914</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4063397718183105</v>
+        <v>0.4071580652630387</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3465142298436117</v>
+        <v>0.348489446779174</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4298424920703768</v>
+        <v>0.4299387345985277</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.4254434472324698</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.5583355963605715</v>
+        <v>0.5583355963605714</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2136352365651508</v>
+        <v>0.2048938841509299</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2479606687355205</v>
+        <v>0.2560913169147232</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2695806908261928</v>
+        <v>0.2670522005868729</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3529151298299891</v>
+        <v>0.3509050745258634</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3576980969171283</v>
+        <v>0.3614811600341949</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4814819062343924</v>
+        <v>0.4797555708238873</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4341026787717906</v>
+        <v>0.4358002092839944</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.633073502100339</v>
+        <v>0.6328040092022338</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3155649180105858</v>
+        <v>0.3161136168014032</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.405013108967423</v>
+        <v>0.4048285217363806</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3866056514602995</v>
+        <v>0.3877104010576001</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.5268173508827312</v>
+        <v>0.5315055275824956</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3296789169853419</v>
+        <v>0.3219357718219563</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3694819765042888</v>
+        <v>0.3798947648176472</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3808126682500462</v>
+        <v>0.3757759032184289</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4423006231419427</v>
+        <v>0.4430345325254568</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4749854118408639</v>
+        <v>0.4717503625740377</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5828845151847407</v>
+        <v>0.5793431538902225</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.545373044636796</v>
+        <v>0.5523932606285005</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6981468877374437</v>
+        <v>0.6982839139545757</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4045907120732226</v>
+        <v>0.404651253932685</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.4846250438003952</v>
+        <v>0.4874791235725659</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4663553484715115</v>
+        <v>0.4674342296527101</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5833831486312768</v>
+        <v>0.5882080869570027</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.2511642594031444</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.3156942961967588</v>
+        <v>0.3156942961967587</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1278369250593171</v>
+        <v>0.1288035802922524</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1648501457766606</v>
+        <v>0.1648653392454351</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1751879008859406</v>
+        <v>0.1749721125682354</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2239752298481921</v>
+        <v>0.2225498395139767</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2230165773152083</v>
+        <v>0.2251172689902149</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3178010260793847</v>
+        <v>0.319747394178202</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2940562672165521</v>
+        <v>0.2960643062535912</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3761838882658177</v>
+        <v>0.3750614345574528</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1802478810361731</v>
+        <v>0.1809605769659962</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.24793757151704</v>
+        <v>0.2476765727189154</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.240590137689512</v>
+        <v>0.240941095783637</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.3059187822817134</v>
+        <v>0.3058289338494142</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1518821427036345</v>
+        <v>0.1524366845382654</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1924461625630186</v>
+        <v>0.1920714338510955</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.20248983404212</v>
+        <v>0.2031682535939748</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2539354557456325</v>
+        <v>0.2551084414640231</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2539365865744282</v>
+        <v>0.2535422224601881</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3497987006425895</v>
+        <v>0.3530793757372668</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3263107521241219</v>
+        <v>0.3279445828192219</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4034701324145561</v>
+        <v>0.4038643515631061</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1993702765569464</v>
+        <v>0.2006551738634096</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2697226592244747</v>
+        <v>0.2687765903775313</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2615364876246478</v>
+        <v>0.2614320272823652</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.326050299827259</v>
+        <v>0.32684805892677</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>28284</v>
+        <v>27867</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>40124</v>
+        <v>40546</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>37651</v>
+        <v>36400</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>30323</v>
+        <v>30793</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>65764</v>
+        <v>66527</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>79739</v>
+        <v>80339</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>54908</v>
+        <v>54391</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>54812</v>
+        <v>54413</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>98391</v>
+        <v>100295</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>128344</v>
+        <v>128908</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>97589</v>
+        <v>98157</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>93820</v>
+        <v>96086</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>51647</v>
+        <v>51957</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>69367</v>
+        <v>69697</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>64920</v>
+        <v>65018</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>73706</v>
+        <v>72951</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>98721</v>
+        <v>98382</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>115569</v>
+        <v>116482</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>83425</v>
+        <v>83385</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>96653</v>
+        <v>96223</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>139522</v>
+        <v>141577</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>173691</v>
+        <v>174356</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>139141</v>
+        <v>138038</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>155723</v>
+        <v>154250</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>51401</v>
+        <v>50429</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>83567</v>
+        <v>83752</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>81534</v>
+        <v>81517</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>67738</v>
+        <v>65699</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>76915</v>
+        <v>76835</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>127951</v>
+        <v>129145</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>113924</v>
+        <v>112142</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>83740</v>
+        <v>85167</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>134594</v>
+        <v>137026</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>221106</v>
+        <v>219228</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>204236</v>
+        <v>203768</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>164347</v>
+        <v>164849</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>81262</v>
+        <v>80459</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>120342</v>
+        <v>123994</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>118548</v>
+        <v>117886</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>113336</v>
+        <v>111442</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>113643</v>
+        <v>113324</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>173462</v>
+        <v>172896</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>151588</v>
+        <v>151026</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>124205</v>
+        <v>123285</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>182888</v>
+        <v>182491</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>278868</v>
+        <v>278748</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>258784</v>
+        <v>256020</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>224437</v>
+        <v>225313</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>69776</v>
+        <v>68194</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>81071</v>
+        <v>80716</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>95511</v>
+        <v>95496</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>93443</v>
+        <v>93207</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>119838</v>
+        <v>121092</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>194592</v>
+        <v>194325</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>136139</v>
+        <v>136828</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>172168</v>
+        <v>169838</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>200610</v>
+        <v>202866</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>286685</v>
+        <v>284249</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>245084</v>
+        <v>240441</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>274527</v>
+        <v>272949</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>103989</v>
+        <v>103742</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>119466</v>
+        <v>121520</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>134783</v>
+        <v>136000</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>136436</v>
+        <v>132744</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>163732</v>
+        <v>164131</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>245580</v>
+        <v>244070</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>179877</v>
+        <v>180231</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>211784</v>
+        <v>208330</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>255960</v>
+        <v>260174</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>350504</v>
+        <v>351386</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>303772</v>
+        <v>301291</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>330647</v>
+        <v>328994</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>61096</v>
+        <v>61180</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>83692</v>
+        <v>85929</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>104253</v>
+        <v>104466</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>151766</v>
+        <v>152399</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>105856</v>
+        <v>105839</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>171690</v>
+        <v>172655</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>165250</v>
+        <v>167755</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>256706</v>
+        <v>256241</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>174455</v>
+        <v>174573</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>266625</v>
+        <v>268217</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>283326</v>
+        <v>286727</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>419755</v>
+        <v>420730</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>95284</v>
+        <v>94377</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>121608</v>
+        <v>122488</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>149296</v>
+        <v>147169</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>201505</v>
+        <v>200317</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>144341</v>
+        <v>143206</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>220173</v>
+        <v>221330</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>212156</v>
+        <v>215622</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>297392</v>
+        <v>297465</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>227256</v>
+        <v>225147</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>330198</v>
+        <v>329005</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>348804</v>
+        <v>350117</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>483510</v>
+        <v>484519</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>69865</v>
+        <v>69346</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>79385</v>
+        <v>77402</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>90651</v>
+        <v>90528</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>160615</v>
+        <v>162889</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>96968</v>
+        <v>98699</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>141735</v>
+        <v>139578</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>173405</v>
+        <v>173791</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>250285</v>
+        <v>250454</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>180308</v>
+        <v>178995</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>227595</v>
+        <v>228858</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>276454</v>
+        <v>274447</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>420631</v>
+        <v>422899</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>102726</v>
+        <v>102481</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>116041</v>
+        <v>114551</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>127472</v>
+        <v>129862</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>203372</v>
+        <v>203731</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>135462</v>
+        <v>135524</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>181727</v>
+        <v>184253</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>217565</v>
+        <v>217665</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>288431</v>
+        <v>287721</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>229448</v>
+        <v>228450</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>284534</v>
+        <v>282638</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>335374</v>
+        <v>335008</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>479478</v>
+        <v>480671</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>37853</v>
+        <v>37116</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>66977</v>
+        <v>67707</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>46600</v>
+        <v>46021</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>94614</v>
+        <v>95135</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>94998</v>
+        <v>96605</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>143351</v>
+        <v>142457</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>143041</v>
+        <v>142157</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>216936</v>
+        <v>215325</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>138118</v>
+        <v>138899</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>221028</v>
+        <v>220815</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>196813</v>
+        <v>197844</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>319264</v>
+        <v>320153</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>62063</v>
+        <v>62693</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>101843</v>
+        <v>99453</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>75928</v>
+        <v>75407</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>126206</v>
+        <v>124802</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>128455</v>
+        <v>128190</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>182379</v>
+        <v>178979</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>183316</v>
+        <v>181554</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>247390</v>
+        <v>245631</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>181562</v>
+        <v>180612</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>269721</v>
+        <v>270264</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>246750</v>
+        <v>248157</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>363752</v>
+        <v>363834</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>44838</v>
+        <v>43004</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>61751</v>
+        <v>63776</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>69282</v>
+        <v>68632</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>109474</v>
+        <v>108850</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>119438</v>
+        <v>120701</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>186784</v>
+        <v>186114</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>173714</v>
+        <v>174394</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>293750</v>
+        <v>293625</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>171601</v>
+        <v>171900</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>257982</v>
+        <v>257864</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>254064</v>
+        <v>254790</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>407864</v>
+        <v>411494</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>69194</v>
+        <v>67569</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>92014</v>
+        <v>94607</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>97868</v>
+        <v>96574</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>137201</v>
+        <v>137428</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>158601</v>
+        <v>157521</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>226122</v>
+        <v>224748</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>218241</v>
+        <v>221051</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>323944</v>
+        <v>324008</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>220013</v>
+        <v>220046</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>308693</v>
+        <v>310511</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>306473</v>
+        <v>307182</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>451658</v>
+        <v>455393</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>418733</v>
+        <v>421899</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>563982</v>
+        <v>564034</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>594649</v>
+        <v>593917</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>791251</v>
+        <v>786216</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>753617</v>
+        <v>760716</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1128510</v>
+        <v>1135421</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1042295</v>
+        <v>1049412</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1404385</v>
+        <v>1400195</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1199500</v>
+        <v>1204242</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1728664</v>
+        <v>1726844</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1669429</v>
+        <v>1671864</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>2222807</v>
+        <v>2222154</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>497494</v>
+        <v>499310</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>658393</v>
+        <v>657111</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>687321</v>
+        <v>689624</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>897094</v>
+        <v>901237</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>858102</v>
+        <v>856769</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1242133</v>
+        <v>1253783</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1156622</v>
+        <v>1162413</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1506251</v>
+        <v>1507723</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1326754</v>
+        <v>1335304</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1880553</v>
+        <v>1873957</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1814773</v>
+        <v>1814049</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>2369082</v>
+        <v>2374879</v>
       </c>
     </row>
     <row r="36">
